--- a/en/application_framework/application_framework/web/getting_started/images/project_update/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/project_update/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\en\application_framework\application_framework\web\getting_started\images\project_update\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE08482-577D-4B5D-AA54-0FF6389F2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト検索" sheetId="4" r:id="rId1"/>
@@ -151,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,6 +445,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -460,7 +469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -539,7 +554,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -552,7 +573,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -582,7 +609,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -612,7 +645,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -642,7 +681,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="円/楕円 6"/>
+          <xdr:cNvPr id="7" name="円/楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -706,7 +751,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -719,7 +770,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+          <xdr:cNvPr id="9" name="直線コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -749,7 +806,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+          <xdr:cNvPr id="10" name="直線コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -779,7 +842,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvPr id="11" name="直線コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -809,7 +878,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="円/楕円 11"/>
+          <xdr:cNvPr id="12" name="円/楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -873,7 +948,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -886,7 +967,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvPr id="14" name="直線コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -916,7 +1003,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+          <xdr:cNvPr id="15" name="直線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -946,7 +1039,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -976,7 +1075,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="円/楕円 16"/>
+          <xdr:cNvPr id="17" name="円/楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1040,7 +1145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1119,7 +1230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1178,7 +1295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1229,7 +1352,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1278,7 +1407,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1327,7 +1462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1382,7 +1523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1447,7 +1594,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1460,7 +1613,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1492,7 +1651,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+          <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1540,7 +1705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1595,7 +1766,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1608,7 +1785,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1640,7 +1823,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+          <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1688,7 +1877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1743,7 +1938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1806,7 +2007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1869,7 +2076,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1932,7 +2145,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1945,7 +2164,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1977,7 +2202,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2025,7 +2256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2080,7 +2317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2139,7 +2382,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Text Box 1"/>
+        <xdr:cNvPr id="2049" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2201,7 +2450,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Text Box 2"/>
+        <xdr:cNvPr id="2050" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2263,7 +2518,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Text Box 3"/>
+        <xdr:cNvPr id="2051" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2325,7 +2586,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2338,7 +2605,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="グループ化 48"/>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2351,7 +2624,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="41" name="図 40"/>
+            <xdr:cNvPr id="41" name="図 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -2380,7 +2659,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvPr id="42" name="正方形/長方形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2422,7 +2707,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+            <xdr:cNvPr id="44" name="正方形/長方形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2464,7 +2755,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+            <xdr:cNvPr id="45" name="正方形/長方形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2536,7 +2833,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvPr id="43" name="正方形/長方形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2640,7 +2943,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="右矢印 47"/>
+          <xdr:cNvPr id="48" name="右矢印 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2716,7 +3025,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2766,7 +3081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2819,7 +3140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvPr id="56" name="右矢印 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2876,7 +3203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2936,7 +3269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2995,7 +3334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3039,7 +3384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67"/>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3087,7 +3438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3141,7 +3498,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2052" name="直線コネクタ 2051"/>
+        <xdr:cNvPr id="2052" name="直線コネクタ 2051">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="3"/>
           <a:endCxn id="68" idx="1"/>
@@ -3198,7 +3561,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="角丸四角形 67"/>
+        <xdr:cNvPr id="68" name="角丸四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3261,7 +3630,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="84" name="グループ化 83"/>
+        <xdr:cNvPr id="84" name="グループ化 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3274,7 +3649,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="直線コネクタ 84"/>
+          <xdr:cNvPr id="85" name="直線コネクタ 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3304,7 +3685,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="直線コネクタ 85"/>
+          <xdr:cNvPr id="86" name="直線コネクタ 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3334,7 +3721,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="直線コネクタ 86"/>
+          <xdr:cNvPr id="87" name="直線コネクタ 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3364,7 +3757,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="円/楕円 87"/>
+          <xdr:cNvPr id="88" name="円/楕円 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3428,7 +3827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3486,7 +3891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3548,7 +3959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3610,7 +4027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3672,7 +4095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3734,7 +4163,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="20" idx="1"/>
@@ -3784,7 +4219,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3831,7 +4272,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3878,7 +4325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3941,7 +4394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4004,7 +4463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4067,7 +4532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4130,7 +4601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
+        <xdr:cNvPr id="45" name="角丸四角形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4192,7 +4669,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4239,7 +4722,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4286,7 +4775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4336,102 +4831,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>58275</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>105197</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="グループ化 31"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2000250" y="16049625"/>
-          <a:ext cx="8059275" cy="3019847"/>
-          <a:chOff x="2000250" y="16049625"/>
-          <a:chExt cx="8059275" cy="3019847"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="30" name="図 29"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2000250" y="16049625"/>
-            <a:ext cx="8059275" cy="3019847"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2047876" y="18640425"/>
-            <a:ext cx="381000" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -4445,7 +4844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4507,7 +4912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="2"/>
           <a:endCxn id="68" idx="0"/>
@@ -4557,7 +4968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4631,7 +5048,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="68" idx="2"/>
           <a:endCxn id="62" idx="0"/>
@@ -4681,7 +5104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4744,7 +5173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="角丸四角形 61"/>
+        <xdr:cNvPr id="62" name="角丸四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4806,7 +5241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4868,7 +5309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="角丸四角形 70"/>
+        <xdr:cNvPr id="71" name="角丸四角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4931,7 +5378,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="71" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -4980,7 +5433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5054,7 +5513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -5103,7 +5568,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5166,7 +5637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="角丸四角形 79"/>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5228,7 +5705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="角丸四角形 81"/>
+        <xdr:cNvPr id="82" name="角丸四角形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5299,7 +5782,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="2"/>
           <a:endCxn id="82" idx="0"/>
@@ -5349,7 +5838,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="82" idx="2"/>
           <a:endCxn id="94" idx="0"/>
@@ -5399,7 +5894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5462,7 +5963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="角丸四角形 91"/>
+        <xdr:cNvPr id="92" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5524,7 +6031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5587,7 +6100,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="角丸四角形 93"/>
+        <xdr:cNvPr id="94" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5654,6 +6173,114 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>135044</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>124297</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A88C04D-AB6D-453B-BF8F-7096B50393E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1600200" y="16392525"/>
+          <a:ext cx="12136544" cy="3381847"/>
+          <a:chOff x="2000250" y="19135725"/>
+          <a:chExt cx="12136544" cy="3381847"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46E6A95-5E17-A236-89A3-8C9B5B1FC78A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2000250" y="19135725"/>
+            <a:ext cx="12136544" cy="3381847"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A822C6BF-2486-396D-0E2F-B98CBBD9C596}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="21859875"/>
+            <a:ext cx="381000" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5975,7 +6602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU130"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
@@ -7567,12 +8194,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:BP73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8:AU36"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10786,7 +11411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
